--- a/data/league_data/france/18/france_misc.xlsx
+++ b/data/league_data/france/18/france_misc.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BFB2390-5EB4-544A-BEF9-7814B8702023}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD13EC16-A4E3-4C42-B20D-0C7701BD1401}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -232,9 +232,6 @@
     <t>Rennes</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
     <t>br BRA</t>
   </si>
   <si>
@@ -1853,12 +1850,15 @@
   </si>
   <si>
     <t>Gabriel Dos Santos</t>
+  </si>
+  <si>
+    <t>Marcelo Filho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2716,14 +2716,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
@@ -2751,7 +2751,7 @@
     <col min="24" max="24" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4215,15 +4215,15 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>41</v>
@@ -4289,12 +4289,12 @@
         <v>74.7</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>29</v>
@@ -4363,12 +4363,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>29</v>
@@ -4435,15 +4435,15 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>41</v>
@@ -4509,15 +4509,15 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>68</v>
@@ -4583,12 +4583,12 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>29</v>
@@ -4597,7 +4597,7 @@
         <v>26</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" s="3">
         <v>24</v>
@@ -4655,12 +4655,12 @@
       </c>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>29</v>
@@ -4729,15 +4729,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>43</v>
@@ -4803,12 +4803,12 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>29</v>
@@ -4877,15 +4877,15 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>26</v>
@@ -4949,12 +4949,12 @@
       </c>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>29</v>
@@ -5023,12 +5023,12 @@
         <v>50.9</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>61</v>
@@ -5095,15 +5095,15 @@
       </c>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>43</v>
@@ -5169,12 +5169,12 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>29</v>
@@ -5183,7 +5183,7 @@
         <v>56</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F34" s="3">
         <v>24</v>
@@ -5243,21 +5243,21 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F35" s="3">
         <v>24</v>
@@ -5317,12 +5317,12 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>29</v>
@@ -5391,15 +5391,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>56</v>
@@ -5465,12 +5465,12 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>29</v>
@@ -5539,12 +5539,12 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>29</v>
@@ -5553,7 +5553,7 @@
         <v>43</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F39" s="3">
         <v>30</v>
@@ -5613,12 +5613,12 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>29</v>
@@ -5627,7 +5627,7 @@
         <v>68</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F40" s="3">
         <v>27</v>
@@ -5687,12 +5687,12 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>29</v>
@@ -5761,21 +5761,21 @@
         <v>47.9</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="F42" s="3">
         <v>30</v>
@@ -5835,21 +5835,21 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F43" s="3">
         <v>23</v>
@@ -5909,21 +5909,21 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F44" s="3">
         <v>25</v>
@@ -5983,12 +5983,12 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>29</v>
@@ -5997,7 +5997,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F45" s="3">
         <v>28</v>
@@ -6057,21 +6057,21 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F46" s="3">
         <v>24</v>
@@ -6131,12 +6131,12 @@
         <v>57.8</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>29</v>
@@ -6205,12 +6205,12 @@
         <v>64.099999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>29</v>
@@ -6219,7 +6219,7 @@
         <v>41</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F48" s="3">
         <v>31</v>
@@ -6279,12 +6279,12 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>29</v>
@@ -6293,7 +6293,7 @@
         <v>58</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F49" s="3">
         <v>24</v>
@@ -6353,15 +6353,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>26</v>
@@ -6425,15 +6425,15 @@
       </c>
       <c r="X50" s="2"/>
     </row>
-    <row r="51" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>41</v>
@@ -6499,21 +6499,21 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F52" s="3">
         <v>33</v>
@@ -6573,12 +6573,12 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>29</v>
@@ -6647,15 +6647,15 @@
         <v>65.900000000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>41</v>
@@ -6721,12 +6721,12 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>29</v>
@@ -6735,7 +6735,7 @@
         <v>68</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F55" s="3">
         <v>24</v>
@@ -6795,15 +6795,15 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>41</v>
@@ -6869,15 +6869,15 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>58</v>
@@ -6943,12 +6943,12 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>61</v>
@@ -7017,21 +7017,21 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F59" s="3">
         <v>30</v>
@@ -7091,15 +7091,15 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>58</v>
@@ -7165,12 +7165,12 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>29</v>
@@ -7239,12 +7239,12 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>29</v>
@@ -7313,15 +7313,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>41</v>
@@ -7387,12 +7387,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>29</v>
@@ -7461,12 +7461,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>61</v>
@@ -7535,12 +7535,12 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>29</v>
@@ -7609,15 +7609,15 @@
         <v>81.099999999999994</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>41</v>
@@ -7683,15 +7683,15 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>41</v>
@@ -7757,12 +7757,12 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>29</v>
@@ -7831,15 +7831,15 @@
         <v>53.7</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>56</v>
@@ -7905,12 +7905,12 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>29</v>
@@ -7979,12 +7979,12 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>29</v>
@@ -7993,7 +7993,7 @@
         <v>41</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F72" s="3">
         <v>25</v>
@@ -8053,12 +8053,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>29</v>
@@ -8127,15 +8127,15 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>41</v>
@@ -8201,12 +8201,12 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>29</v>
@@ -8215,7 +8215,7 @@
         <v>26</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F75" s="3">
         <v>32</v>
@@ -8273,18 +8273,18 @@
       </c>
       <c r="X75" s="2"/>
     </row>
-    <row r="76" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>39</v>
@@ -8347,12 +8347,12 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>29</v>
@@ -8421,15 +8421,15 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>41</v>
@@ -8495,21 +8495,21 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F79" s="3">
         <v>26</v>
@@ -8569,12 +8569,12 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>29</v>
@@ -8643,12 +8643,12 @@
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>29</v>
@@ -8657,7 +8657,7 @@
         <v>58</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F81" s="3">
         <v>20</v>
@@ -8717,12 +8717,12 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>29</v>
@@ -8791,12 +8791,12 @@
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>29</v>
@@ -8805,7 +8805,7 @@
         <v>43</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F83" s="3">
         <v>29</v>
@@ -8865,12 +8865,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>29</v>
@@ -8879,7 +8879,7 @@
         <v>43</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F84" s="3">
         <v>22</v>
@@ -8939,21 +8939,21 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F85" s="3">
         <v>30</v>
@@ -9013,12 +9013,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>29</v>
@@ -9087,12 +9087,12 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>29</v>
@@ -9161,15 +9161,15 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>26</v>
@@ -9233,15 +9233,15 @@
       </c>
       <c r="X88" s="2"/>
     </row>
-    <row r="89" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>58</v>
@@ -9307,12 +9307,12 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>29</v>
@@ -9321,7 +9321,7 @@
         <v>41</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F90" s="3">
         <v>27</v>
@@ -9381,12 +9381,12 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>61</v>
@@ -9455,21 +9455,21 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F92" s="3">
         <v>24</v>
@@ -9527,15 +9527,15 @@
       </c>
       <c r="X92" s="2"/>
     </row>
-    <row r="93" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>41</v>
@@ -9601,21 +9601,21 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F94" s="3">
         <v>27</v>
@@ -9675,15 +9675,15 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>58</v>
@@ -9749,15 +9749,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>56</v>
@@ -9823,12 +9823,12 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>61</v>
@@ -9837,7 +9837,7 @@
         <v>41</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F97" s="3">
         <v>31</v>
@@ -9897,15 +9897,15 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>41</v>
@@ -9971,12 +9971,12 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>29</v>
@@ -10045,15 +10045,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>56</v>
@@ -10119,21 +10119,21 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F101" s="3">
         <v>29</v>
@@ -10193,18 +10193,18 @@
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>62</v>
@@ -10267,12 +10267,12 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>29</v>
@@ -10341,12 +10341,12 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>29</v>
@@ -10355,7 +10355,7 @@
         <v>41</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F104" s="3">
         <v>29</v>
@@ -10415,12 +10415,12 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>29</v>
@@ -10489,21 +10489,21 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F106" s="3">
         <v>21</v>
@@ -10563,12 +10563,12 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>29</v>
@@ -10637,15 +10637,15 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>41</v>
@@ -10711,12 +10711,12 @@
         <v>72.2</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>29</v>
@@ -10785,15 +10785,15 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>41</v>
@@ -10859,12 +10859,12 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>29</v>
@@ -10873,7 +10873,7 @@
         <v>41</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F111" s="3">
         <v>21</v>
@@ -10933,12 +10933,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>29</v>
@@ -10947,7 +10947,7 @@
         <v>41</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F112" s="3">
         <v>25</v>
@@ -11007,15 +11007,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>41</v>
@@ -11081,15 +11081,15 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>58</v>
@@ -11155,12 +11155,12 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>29</v>
@@ -11169,7 +11169,7 @@
         <v>41</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F115" s="3">
         <v>25</v>
@@ -11229,18 +11229,18 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>62</v>
@@ -11303,12 +11303,12 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>29</v>
@@ -11377,12 +11377,12 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>29</v>
@@ -11391,7 +11391,7 @@
         <v>43</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F118" s="3">
         <v>22</v>
@@ -11451,12 +11451,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>29</v>
@@ -11525,12 +11525,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>29</v>
@@ -11539,7 +11539,7 @@
         <v>68</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F120" s="3">
         <v>30</v>
@@ -11599,12 +11599,12 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>29</v>
@@ -11673,15 +11673,15 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>41</v>
@@ -11747,15 +11747,15 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>56</v>
@@ -11821,12 +11821,12 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>29</v>
@@ -11895,15 +11895,15 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>41</v>
@@ -11969,15 +11969,15 @@
         <v>70.3</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>43</v>
@@ -12043,15 +12043,15 @@
         <v>76.900000000000006</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>58</v>
@@ -12117,15 +12117,15 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>68</v>
@@ -12191,15 +12191,15 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>56</v>
@@ -12265,12 +12265,12 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>29</v>
@@ -12279,7 +12279,7 @@
         <v>43</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F130" s="3">
         <v>27</v>
@@ -12339,21 +12339,21 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F131" s="3">
         <v>26</v>
@@ -12413,12 +12413,12 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>29</v>
@@ -12487,21 +12487,21 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F133" s="3">
         <v>23</v>
@@ -12561,12 +12561,12 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>29</v>
@@ -12575,7 +12575,7 @@
         <v>58</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F134" s="3">
         <v>20</v>
@@ -12635,15 +12635,15 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>53</v>
@@ -12709,15 +12709,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>43</v>
@@ -12783,12 +12783,12 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>29</v>
@@ -12797,7 +12797,7 @@
         <v>68</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F137" s="3">
         <v>24</v>
@@ -12857,12 +12857,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>29</v>
@@ -12871,7 +12871,7 @@
         <v>41</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F138" s="3">
         <v>23</v>
@@ -12931,15 +12931,15 @@
         <v>67.900000000000006</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>41</v>
@@ -13005,15 +13005,15 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>56</v>
@@ -13079,12 +13079,12 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>29</v>
@@ -13093,7 +13093,7 @@
         <v>43</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F141" s="3">
         <v>30</v>
@@ -13153,21 +13153,21 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F142" s="3">
         <v>30</v>
@@ -13227,12 +13227,12 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>29</v>
@@ -13241,7 +13241,7 @@
         <v>56</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F143" s="3">
         <v>27</v>
@@ -13301,21 +13301,21 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F144" s="3">
         <v>24</v>
@@ -13375,12 +13375,12 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="145" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>29</v>
@@ -13389,7 +13389,7 @@
         <v>43</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F145" s="3">
         <v>22</v>
@@ -13449,12 +13449,12 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="146" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>29</v>
@@ -13523,12 +13523,12 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="147" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>29</v>
@@ -13597,15 +13597,15 @@
         <v>72.7</v>
       </c>
     </row>
-    <row r="148" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>58</v>
@@ -13671,15 +13671,15 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="149" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>56</v>
@@ -13745,12 +13745,12 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="150" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>29</v>
@@ -13819,12 +13819,12 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="151" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>29</v>
@@ -13833,7 +13833,7 @@
         <v>41</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F151" s="3">
         <v>28</v>
@@ -13893,21 +13893,21 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="152" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F152" s="3">
         <v>32</v>
@@ -13967,21 +13967,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="153" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F153" s="3">
         <v>29</v>
@@ -14041,12 +14041,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>29</v>
@@ -14055,7 +14055,7 @@
         <v>41</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F154" s="3">
         <v>25</v>
@@ -14115,12 +14115,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>29</v>
@@ -14129,7 +14129,7 @@
         <v>56</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F155" s="3">
         <v>18</v>
@@ -14189,15 +14189,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>58</v>
@@ -14263,15 +14263,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>43</v>
@@ -14337,15 +14337,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="158" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>41</v>
@@ -14411,12 +14411,12 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="159" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>29</v>
@@ -14425,7 +14425,7 @@
         <v>41</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F159" s="3">
         <v>28</v>
@@ -14485,21 +14485,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F160" s="3">
         <v>34</v>
@@ -14559,12 +14559,12 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="161" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>29</v>
@@ -14633,15 +14633,15 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="162" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>43</v>
@@ -14707,15 +14707,15 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="163" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>43</v>
@@ -14781,15 +14781,15 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="164" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>41</v>
@@ -14855,15 +14855,15 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>56</v>
@@ -14929,21 +14929,21 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="166" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F166" s="3">
         <v>23</v>
@@ -15003,15 +15003,15 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="167" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>58</v>
@@ -15077,15 +15077,15 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="168" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>58</v>
@@ -15151,12 +15151,12 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="169" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>29</v>
@@ -15225,15 +15225,15 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="170" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>68</v>
@@ -15299,21 +15299,21 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="171" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F171" s="3">
         <v>27</v>
@@ -15373,15 +15373,15 @@
         <v>63.8</v>
       </c>
     </row>
-    <row r="172" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>41</v>
@@ -15447,21 +15447,21 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="173" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F173" s="3">
         <v>22</v>
@@ -15521,12 +15521,12 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="174" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>29</v>
@@ -15595,12 +15595,12 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="175" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>29</v>
@@ -15669,12 +15669,12 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>29</v>
@@ -15743,21 +15743,21 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="177" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F177" s="3">
         <v>21</v>
@@ -15817,15 +15817,15 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="178" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>41</v>
@@ -15891,15 +15891,15 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="179" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>58</v>
@@ -15965,12 +15965,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>29</v>
@@ -16039,21 +16039,21 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F181" s="3">
         <v>27</v>
@@ -16111,12 +16111,12 @@
       </c>
       <c r="X181" s="2"/>
     </row>
-    <row r="182" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>29</v>
@@ -16185,12 +16185,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="183" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>29</v>
@@ -16199,7 +16199,7 @@
         <v>68</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F183" s="3">
         <v>30</v>
@@ -16259,15 +16259,15 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="184" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>43</v>
@@ -16333,12 +16333,12 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>29</v>
@@ -16407,12 +16407,12 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>29</v>
@@ -16481,15 +16481,15 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>68</v>
@@ -16555,15 +16555,15 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>58</v>
@@ -16629,15 +16629,15 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>58</v>
@@ -16703,15 +16703,15 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>58</v>
@@ -16777,12 +16777,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>29</v>
@@ -16851,12 +16851,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>29</v>
@@ -16925,15 +16925,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>41</v>
@@ -16999,15 +16999,15 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C194" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>41</v>
@@ -17073,15 +17073,15 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="195" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>41</v>
@@ -17147,21 +17147,21 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F196" s="3">
         <v>25</v>
@@ -17221,12 +17221,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>29</v>
@@ -17295,21 +17295,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F198" s="3">
         <v>25</v>
@@ -17369,21 +17369,21 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="199" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F199" s="3">
         <v>21</v>
@@ -17443,12 +17443,12 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="200" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>29</v>
@@ -17517,12 +17517,12 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="201" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>29</v>
@@ -17531,7 +17531,7 @@
         <v>68</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F201" s="3">
         <v>31</v>
@@ -17591,18 +17591,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>36</v>
@@ -17665,21 +17665,21 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="203" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F203" s="3">
         <v>26</v>
@@ -17739,21 +17739,21 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F204" s="3">
         <v>27</v>
@@ -17813,21 +17813,21 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="205" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F205" s="3">
         <v>34</v>
@@ -17887,12 +17887,12 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="206" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>61</v>
@@ -17961,21 +17961,21 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="207" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F207" s="3">
         <v>24</v>
@@ -18035,21 +18035,21 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="208" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F208" s="3">
         <v>33</v>
@@ -18109,12 +18109,12 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="209" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>29</v>
@@ -18123,7 +18123,7 @@
         <v>58</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F209" s="3">
         <v>33</v>
@@ -18183,21 +18183,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C210" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F210" s="3">
         <v>23</v>
@@ -18257,12 +18257,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="211" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>29</v>
@@ -18271,7 +18271,7 @@
         <v>41</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F211" s="3">
         <v>24</v>
@@ -18331,15 +18331,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="212" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>41</v>
@@ -18405,12 +18405,12 @@
         <v>81.5</v>
       </c>
     </row>
-    <row r="213" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>29</v>
@@ -18479,12 +18479,12 @@
         <v>88.2</v>
       </c>
     </row>
-    <row r="214" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>29</v>
@@ -18553,21 +18553,21 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="215" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F215" s="3">
         <v>20</v>
@@ -18625,21 +18625,21 @@
       </c>
       <c r="X215" s="2"/>
     </row>
-    <row r="216" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F216" s="3">
         <v>23</v>
@@ -18699,12 +18699,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>29</v>
@@ -18713,7 +18713,7 @@
         <v>58</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F217" s="3">
         <v>20</v>
@@ -18773,21 +18773,21 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F218" s="3">
         <v>25</v>
@@ -18847,12 +18847,12 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="219" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>29</v>
@@ -18861,7 +18861,7 @@
         <v>26</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F219" s="3">
         <v>34</v>
@@ -18919,15 +18919,15 @@
       </c>
       <c r="X219" s="2"/>
     </row>
-    <row r="220" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>43</v>
@@ -18993,12 +18993,12 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="221" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>29</v>
@@ -19067,15 +19067,15 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="222" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>58</v>
@@ -19141,15 +19141,15 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="223" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>41</v>
@@ -19215,12 +19215,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="224" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>29</v>
@@ -19289,12 +19289,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="225" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>29</v>
@@ -19303,7 +19303,7 @@
         <v>58</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F225" s="3">
         <v>25</v>
@@ -19363,15 +19363,15 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="226" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>41</v>
@@ -19437,15 +19437,15 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="227" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>41</v>
@@ -19511,15 +19511,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="228" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>41</v>
@@ -19585,15 +19585,15 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>53</v>
@@ -19659,12 +19659,12 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="230" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>29</v>
@@ -19733,15 +19733,15 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="231" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>41</v>
@@ -19807,15 +19807,15 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="232" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>43</v>
@@ -19881,12 +19881,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="233" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>29</v>
@@ -19955,21 +19955,21 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="234" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F234" s="3">
         <v>25</v>
@@ -20029,15 +20029,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="235" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>41</v>
@@ -20103,12 +20103,12 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="236" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>29</v>
@@ -20177,18 +20177,18 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="237" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>62</v>
@@ -20251,15 +20251,15 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="238" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>43</v>
@@ -20325,15 +20325,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="239" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>43</v>
@@ -20399,12 +20399,12 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="240" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>29</v>
@@ -20473,18 +20473,18 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="241" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E241" s="3" t="s">
         <v>54</v>
@@ -20547,21 +20547,21 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="242" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F242" s="3">
         <v>27</v>
@@ -20621,12 +20621,12 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="243" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>29</v>
@@ -20635,7 +20635,7 @@
         <v>68</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F243" s="3">
         <v>20</v>
@@ -20695,12 +20695,12 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="244" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>29</v>
@@ -20709,7 +20709,7 @@
         <v>26</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F244" s="3">
         <v>25</v>
@@ -20767,12 +20767,12 @@
       </c>
       <c r="X244" s="2"/>
     </row>
-    <row r="245" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>29</v>
@@ -20841,15 +20841,15 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="246" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>41</v>
@@ -20915,15 +20915,15 @@
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="247" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>43</v>
@@ -20989,12 +20989,12 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="248" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>29</v>
@@ -21063,15 +21063,15 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="249" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C249" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>346</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>41</v>
@@ -21137,12 +21137,12 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="250" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>29</v>
@@ -21211,15 +21211,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="251" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>43</v>
@@ -21285,12 +21285,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="252" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>29</v>
@@ -21359,15 +21359,15 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="253" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>58</v>
@@ -21433,12 +21433,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="254" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>29</v>
@@ -21507,21 +21507,21 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="255" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F255" s="3">
         <v>29</v>
@@ -21581,15 +21581,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="256" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C256" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>41</v>
@@ -21655,15 +21655,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="257" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>41</v>
@@ -21729,12 +21729,12 @@
         <v>69.7</v>
       </c>
     </row>
-    <row r="258" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>29</v>
@@ -21803,12 +21803,12 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="259" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>29</v>
@@ -21877,15 +21877,15 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="260" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>53</v>
@@ -21951,12 +21951,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="261" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>29</v>
@@ -22025,12 +22025,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="262" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>29</v>
@@ -22099,12 +22099,12 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="263" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>29</v>
@@ -22173,12 +22173,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="264" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>61</v>
@@ -22247,15 +22247,15 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="265" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>43</v>
@@ -22321,12 +22321,12 @@
         <v>67.400000000000006</v>
       </c>
     </row>
-    <row r="266" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>29</v>
@@ -22335,7 +22335,7 @@
         <v>68</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F266" s="3">
         <v>30</v>
@@ -22395,12 +22395,12 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="267" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>29</v>
@@ -22409,7 +22409,7 @@
         <v>43</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F267" s="3">
         <v>19</v>
@@ -22469,12 +22469,12 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="268" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>29</v>
@@ -22483,7 +22483,7 @@
         <v>68</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F268" s="3">
         <v>40</v>
@@ -22543,21 +22543,21 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="269" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F269" s="3">
         <v>28</v>
@@ -22617,15 +22617,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>43</v>
@@ -22691,12 +22691,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="271" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>29</v>
@@ -22765,12 +22765,12 @@
         <v>72.7</v>
       </c>
     </row>
-    <row r="272" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>29</v>
@@ -22779,7 +22779,7 @@
         <v>41</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F272" s="3">
         <v>18</v>
@@ -22839,12 +22839,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="273" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>29</v>
@@ -22913,15 +22913,15 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="274" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C274" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>43</v>
@@ -22987,15 +22987,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="275" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>41</v>
@@ -23061,15 +23061,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="276" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>68</v>
@@ -23135,15 +23135,15 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="277" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C277" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>58</v>
@@ -23209,15 +23209,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="278" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>41</v>
@@ -23283,12 +23283,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="279" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>29</v>
@@ -23357,15 +23357,15 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="280" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>58</v>
@@ -23431,21 +23431,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F281" s="3">
         <v>26</v>
@@ -23505,15 +23505,15 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="282" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D282" s="3" t="s">
         <v>41</v>
@@ -23579,12 +23579,12 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="283" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>29</v>
@@ -23593,7 +23593,7 @@
         <v>41</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F283" s="3">
         <v>24</v>
@@ -23653,15 +23653,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="284" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>58</v>
@@ -23727,12 +23727,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="285" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>29</v>
@@ -23801,15 +23801,15 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="286" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C286" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>41</v>
@@ -23875,12 +23875,12 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="287" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>29</v>
@@ -23949,15 +23949,15 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="288" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>43</v>
@@ -24023,15 +24023,15 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="289" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>56</v>
@@ -24097,21 +24097,21 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="290" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F290" s="3">
         <v>26</v>
@@ -24171,12 +24171,12 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="291" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>29</v>
@@ -24185,7 +24185,7 @@
         <v>41</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F291" s="3">
         <v>33</v>
@@ -24245,12 +24245,12 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="292" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>29</v>
@@ -24259,7 +24259,7 @@
         <v>26</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F292" s="3">
         <v>26</v>
@@ -24317,12 +24317,12 @@
       </c>
       <c r="X292" s="2"/>
     </row>
-    <row r="293" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>29</v>
@@ -24391,15 +24391,15 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="294" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>41</v>
@@ -24465,21 +24465,21 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="295" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F295" s="3">
         <v>34</v>
@@ -24539,15 +24539,15 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="296" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>56</v>
@@ -24613,12 +24613,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="297" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>29</v>
@@ -24687,12 +24687,12 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="298" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>29</v>
@@ -24761,15 +24761,15 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="299" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D299" s="3" t="s">
         <v>43</v>
@@ -24835,21 +24835,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="300" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F300" s="3">
         <v>24</v>
@@ -24909,15 +24909,15 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="301" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>56</v>
@@ -24983,15 +24983,15 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="302" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>41</v>
@@ -25057,21 +25057,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C303" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>406</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F303" s="3">
         <v>28</v>
@@ -25131,15 +25131,15 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="304" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>41</v>
@@ -25205,15 +25205,15 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="305" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>56</v>
@@ -25279,15 +25279,15 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="306" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D306" s="3" t="s">
         <v>43</v>
@@ -25353,12 +25353,12 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="307" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>29</v>
@@ -25427,15 +25427,15 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="308" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>58</v>
@@ -25501,15 +25501,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="309" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>43</v>
@@ -25575,12 +25575,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="310" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>29</v>
@@ -25589,7 +25589,7 @@
         <v>56</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F310" s="3">
         <v>22</v>
@@ -25649,12 +25649,12 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="311" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>25</v>
@@ -25723,15 +25723,15 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="312" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>58</v>
@@ -25797,12 +25797,12 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="313" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>29</v>
@@ -25871,12 +25871,12 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="314" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>29</v>
@@ -25885,7 +25885,7 @@
         <v>43</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F314" s="3">
         <v>22</v>
@@ -25945,15 +25945,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="315" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>58</v>
@@ -26019,18 +26019,18 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="316" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E316" s="3" t="s">
         <v>69</v>
@@ -26093,15 +26093,15 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="317" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>43</v>
@@ -26167,15 +26167,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="318" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>58</v>
@@ -26241,18 +26241,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="319" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E319" s="3" t="s">
         <v>44</v>
@@ -26315,12 +26315,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="320" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>29</v>
@@ -26389,21 +26389,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="321" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D321" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F321" s="3">
         <v>25</v>
@@ -26463,12 +26463,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="322" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>29</v>
@@ -26537,12 +26537,12 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="323" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>29</v>
@@ -26551,7 +26551,7 @@
         <v>43</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F323" s="3">
         <v>22</v>
@@ -26611,15 +26611,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="324" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D324" s="3" t="s">
         <v>41</v>
@@ -26685,15 +26685,15 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="325" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D325" s="3" t="s">
         <v>56</v>
@@ -26759,12 +26759,12 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="326" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>29</v>
@@ -26833,21 +26833,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="327" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D327" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F327" s="3">
         <v>25</v>
@@ -26907,12 +26907,12 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="328" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>29</v>
@@ -26921,7 +26921,7 @@
         <v>58</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F328" s="3">
         <v>34</v>
@@ -26981,12 +26981,12 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="329" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>46</v>
@@ -27055,21 +27055,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="330" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C330" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F330" s="3">
         <v>27</v>
@@ -27129,21 +27129,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="331" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F331" s="3">
         <v>21</v>
@@ -27203,12 +27203,12 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="332" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>29</v>
@@ -27217,7 +27217,7 @@
         <v>26</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F332" s="3">
         <v>23</v>
@@ -27275,15 +27275,15 @@
       </c>
       <c r="X332" s="2"/>
     </row>
-    <row r="333" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>68</v>
@@ -27349,15 +27349,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="334" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>58</v>
@@ -27423,15 +27423,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="335" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>58</v>
@@ -27497,21 +27497,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="336" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C336" s="3" t="s">
         <v>441</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>442</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F336" s="3">
         <v>29</v>
@@ -27571,12 +27571,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="337" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>29</v>
@@ -27645,21 +27645,21 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="338" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F338" s="3">
         <v>23</v>
@@ -27719,21 +27719,21 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="339" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F339" s="3">
         <v>20</v>
@@ -27793,12 +27793,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="340" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>29</v>
@@ -27867,15 +27867,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>68</v>
@@ -27941,12 +27941,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>29</v>
@@ -28015,15 +28015,15 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="343" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>53</v>
@@ -28089,15 +28089,15 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="344" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>68</v>
@@ -28163,15 +28163,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>68</v>
@@ -28237,18 +28237,18 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="346" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E346" s="3" t="s">
         <v>44</v>
@@ -28311,21 +28311,21 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="347" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F347" s="3">
         <v>21</v>
@@ -28385,12 +28385,12 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="348" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>29</v>
@@ -28457,12 +28457,12 @@
       </c>
       <c r="X348" s="2"/>
     </row>
-    <row r="349" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>29</v>
@@ -28471,7 +28471,7 @@
         <v>43</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F349" s="3">
         <v>30</v>
@@ -28531,12 +28531,12 @@
         <v>76.900000000000006</v>
       </c>
     </row>
-    <row r="350" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>29</v>
@@ -28545,7 +28545,7 @@
         <v>43</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F350" s="3">
         <v>21</v>
@@ -28605,15 +28605,15 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="351" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>43</v>
@@ -28679,15 +28679,15 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="352" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C352" s="3" t="s">
         <v>458</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>459</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>58</v>
@@ -28753,12 +28753,12 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="353" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>25</v>
@@ -28827,15 +28827,15 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="354" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D354" s="3" t="s">
         <v>56</v>
@@ -28901,15 +28901,15 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="355" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>56</v>
@@ -28975,15 +28975,15 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="356" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>41</v>
@@ -29049,15 +29049,15 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="357" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>465</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>56</v>
@@ -29123,12 +29123,12 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="358" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>29</v>
@@ -29197,12 +29197,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>29</v>
@@ -29271,12 +29271,12 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="360" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>29</v>
@@ -29285,7 +29285,7 @@
         <v>26</v>
       </c>
       <c r="E360" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F360" s="3">
         <v>34</v>
@@ -29343,15 +29343,15 @@
       </c>
       <c r="X360" s="2"/>
     </row>
-    <row r="361" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D361" s="3" t="s">
         <v>68</v>
@@ -29417,12 +29417,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="362" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>29</v>
@@ -29491,12 +29491,12 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="363" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>29</v>
@@ -29565,18 +29565,18 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="364" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E364" s="3" t="s">
         <v>51</v>
@@ -29639,15 +29639,15 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="365" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>41</v>
@@ -29713,15 +29713,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="366" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D366" s="3" t="s">
         <v>53</v>
@@ -29787,18 +29787,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="367" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E367" s="3" t="s">
         <v>66</v>
@@ -29861,15 +29861,15 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="368" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D368" s="3" t="s">
         <v>68</v>
@@ -29935,12 +29935,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>29</v>
@@ -29949,7 +29949,7 @@
         <v>58</v>
       </c>
       <c r="E369" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F369" s="3">
         <v>20</v>
@@ -30009,12 +30009,12 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="370" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>29</v>
@@ -30083,12 +30083,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="371" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>61</v>
@@ -30157,21 +30157,21 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="372" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D372" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E372" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F372" s="3">
         <v>26</v>
@@ -30231,18 +30231,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="373" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E373" s="3" t="s">
         <v>54</v>
@@ -30305,15 +30305,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="374" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D374" s="3" t="s">
         <v>58</v>
@@ -30379,12 +30379,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>29</v>
@@ -30453,15 +30453,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="376" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>58</v>
@@ -30527,12 +30527,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="377" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>29</v>
@@ -30541,7 +30541,7 @@
         <v>58</v>
       </c>
       <c r="E377" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F377" s="3">
         <v>19</v>
@@ -30601,21 +30601,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="378" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F378" s="3">
         <v>21</v>
@@ -30675,18 +30675,18 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="379" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E379" s="3" t="s">
         <v>36</v>
@@ -30749,15 +30749,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C380" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>488</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>53</v>
@@ -30823,21 +30823,21 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="381" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F381" s="3">
         <v>20</v>
@@ -30897,15 +30897,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="382" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>43</v>
@@ -30971,12 +30971,12 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="383" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>29</v>
@@ -30985,7 +30985,7 @@
         <v>43</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F383" s="3">
         <v>32</v>
@@ -31045,12 +31045,12 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="384" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>29</v>
@@ -31059,7 +31059,7 @@
         <v>26</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F384" s="3">
         <v>25</v>
@@ -31117,12 +31117,12 @@
       </c>
       <c r="X384" s="2"/>
     </row>
-    <row r="385" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>29</v>
@@ -31191,12 +31191,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="386" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>29</v>
@@ -31265,15 +31265,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="387" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D387" s="3" t="s">
         <v>58</v>
@@ -31339,12 +31339,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="388" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>29</v>
@@ -31413,15 +31413,15 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="389" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D389" s="3" t="s">
         <v>68</v>
@@ -31487,12 +31487,12 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="390" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>29</v>
@@ -31561,12 +31561,12 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="391" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>29</v>
@@ -31635,15 +31635,15 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="392" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D392" s="3" t="s">
         <v>58</v>
@@ -31709,12 +31709,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="393" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>29</v>
@@ -31783,21 +31783,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="394" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E394" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F394" s="3">
         <v>27</v>
@@ -31857,12 +31857,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="395" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>29</v>
@@ -31871,7 +31871,7 @@
         <v>68</v>
       </c>
       <c r="E395" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F395" s="3">
         <v>22</v>
@@ -31931,15 +31931,15 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="396" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D396" s="3" t="s">
         <v>41</v>
@@ -32005,15 +32005,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="397" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>58</v>
@@ -32079,21 +32079,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="398" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C398" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="C398" s="3" t="s">
-        <v>506</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E398" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F398" s="3">
         <v>24</v>
@@ -32153,21 +32153,21 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="399" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D399" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E399" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F399" s="3">
         <v>22</v>
@@ -32227,12 +32227,12 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="400" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>29</v>
@@ -32241,7 +32241,7 @@
         <v>53</v>
       </c>
       <c r="E400" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F400" s="3">
         <v>17</v>
@@ -32301,12 +32301,12 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="401" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>29</v>
@@ -32375,12 +32375,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>29</v>
@@ -32389,7 +32389,7 @@
         <v>68</v>
       </c>
       <c r="E402" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F402" s="3">
         <v>27</v>
@@ -32449,12 +32449,12 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="403" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>50</v>
@@ -32523,12 +32523,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="404" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>29</v>
@@ -32537,7 +32537,7 @@
         <v>68</v>
       </c>
       <c r="E404" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F404" s="3">
         <v>19</v>
@@ -32597,21 +32597,21 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="405" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D405" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F405" s="3">
         <v>27</v>
@@ -32671,15 +32671,15 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="406" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>43</v>
@@ -32745,15 +32745,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>58</v>
@@ -32819,12 +32819,12 @@
         <v>54.2</v>
       </c>
     </row>
-    <row r="408" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>29</v>
@@ -32893,15 +32893,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="409" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>68</v>
@@ -32967,15 +32967,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="410" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C410" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="C410" s="3" t="s">
-        <v>519</v>
       </c>
       <c r="D410" s="3" t="s">
         <v>56</v>
@@ -33041,12 +33041,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>29</v>
@@ -33115,21 +33115,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="412" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D412" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F412" s="3">
         <v>33</v>
@@ -33187,15 +33187,15 @@
       </c>
       <c r="X412" s="2"/>
     </row>
-    <row r="413" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>56</v>
@@ -33261,15 +33261,15 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="414" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D414" s="3" t="s">
         <v>68</v>
@@ -33335,15 +33335,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="415" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>41</v>
@@ -33409,12 +33409,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>29</v>
@@ -33481,15 +33481,15 @@
       </c>
       <c r="X416" s="2"/>
     </row>
-    <row r="417" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>26</v>
@@ -33553,15 +33553,15 @@
       </c>
       <c r="X417" s="2"/>
     </row>
-    <row r="418" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>58</v>
@@ -33627,21 +33627,21 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="419" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E419" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F419" s="3">
         <v>27</v>
@@ -33699,12 +33699,12 @@
       </c>
       <c r="X419" s="2"/>
     </row>
-    <row r="420" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>29</v>
@@ -33771,12 +33771,12 @@
       </c>
       <c r="X420" s="2"/>
     </row>
-    <row r="421" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>29</v>
@@ -33785,7 +33785,7 @@
         <v>41</v>
       </c>
       <c r="E421" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F421" s="3">
         <v>36</v>
@@ -33845,12 +33845,12 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="422" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>29</v>
@@ -33859,7 +33859,7 @@
         <v>53</v>
       </c>
       <c r="E422" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F422" s="3">
         <v>27</v>
@@ -33919,21 +33919,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D423" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E423" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F423" s="3">
         <v>33</v>
@@ -33993,15 +33993,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="424" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D424" s="3" t="s">
         <v>56</v>
@@ -34067,15 +34067,15 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="425" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>41</v>
@@ -34141,12 +34141,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="426" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>29</v>
@@ -34215,15 +34215,15 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="427" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D427" s="3" t="s">
         <v>41</v>
@@ -34289,12 +34289,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="428" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>29</v>
@@ -34363,12 +34363,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="429" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>25</v>
@@ -34437,15 +34437,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="430" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>26</v>
@@ -34509,12 +34509,12 @@
       </c>
       <c r="X430" s="2"/>
     </row>
-    <row r="431" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>29</v>
@@ -34583,12 +34583,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>29</v>
@@ -34655,12 +34655,12 @@
       </c>
       <c r="X432" s="2"/>
     </row>
-    <row r="433" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>29</v>
@@ -34729,12 +34729,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="434" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>29</v>
@@ -34803,18 +34803,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="435" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E435" s="3" t="s">
         <v>30</v>
@@ -34877,12 +34877,12 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="436" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>29</v>
@@ -34951,12 +34951,12 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="437" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>29</v>
@@ -35025,12 +35025,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="438" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>29</v>
@@ -35039,7 +35039,7 @@
         <v>26</v>
       </c>
       <c r="E438" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F438" s="3">
         <v>33</v>
@@ -35097,15 +35097,15 @@
       </c>
       <c r="X438" s="2"/>
     </row>
-    <row r="439" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D439" s="3" t="s">
         <v>26</v>
@@ -35169,12 +35169,12 @@
       </c>
       <c r="X439" s="2"/>
     </row>
-    <row r="440" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>29</v>
@@ -35241,12 +35241,12 @@
       </c>
       <c r="X440" s="2"/>
     </row>
-    <row r="441" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>29</v>
@@ -35315,12 +35315,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="442" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>29</v>
@@ -35329,7 +35329,7 @@
         <v>56</v>
       </c>
       <c r="E442" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F442" s="3">
         <v>20</v>
@@ -35389,15 +35389,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="443" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D443" s="3" t="s">
         <v>41</v>
@@ -35463,21 +35463,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="444" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D444" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E444" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F444" s="3">
         <v>23</v>
@@ -35535,15 +35535,15 @@
       </c>
       <c r="X444" s="2"/>
     </row>
-    <row r="445" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D445" s="3" t="s">
         <v>26</v>
@@ -35607,12 +35607,12 @@
       </c>
       <c r="X445" s="2"/>
     </row>
-    <row r="446" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>29</v>
@@ -35621,7 +35621,7 @@
         <v>58</v>
       </c>
       <c r="E446" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F446" s="3">
         <v>19</v>
@@ -35681,15 +35681,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="447" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C447" s="3" t="s">
         <v>553</v>
-      </c>
-      <c r="C447" s="3" t="s">
-        <v>554</v>
       </c>
       <c r="D447" s="3" t="s">
         <v>41</v>
@@ -35755,12 +35755,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>29</v>
@@ -35829,15 +35829,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="449" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D449" s="3" t="s">
         <v>26</v>
@@ -35901,12 +35901,12 @@
       </c>
       <c r="X449" s="2"/>
     </row>
-    <row r="450" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>29</v>
@@ -35975,18 +35975,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="451" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E451" s="3" t="s">
         <v>69</v>
@@ -36049,15 +36049,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="452" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C452" s="3" t="s">
         <v>558</v>
-      </c>
-      <c r="C452" s="3" t="s">
-        <v>559</v>
       </c>
       <c r="D452" s="3" t="s">
         <v>58</v>
@@ -36123,12 +36123,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="453" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>29</v>
@@ -36197,15 +36197,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="454" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D454" s="3" t="s">
         <v>43</v>
@@ -36271,15 +36271,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="455" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D455" s="3" t="s">
         <v>58</v>
@@ -36343,15 +36343,15 @@
       </c>
       <c r="X455" s="2"/>
     </row>
-    <row r="456" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D456" s="3" t="s">
         <v>53</v>
@@ -36417,15 +36417,15 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="457" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D457" s="3" t="s">
         <v>43</v>
@@ -36491,12 +36491,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>29</v>
@@ -36565,15 +36565,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D459" s="3" t="s">
         <v>43</v>
@@ -36639,15 +36639,15 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="460" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D460" s="3" t="s">
         <v>68</v>
@@ -36713,12 +36713,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>29</v>
@@ -36787,15 +36787,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="462" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D462" s="3" t="s">
         <v>58</v>
@@ -36861,12 +36861,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="463" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>29</v>
@@ -36875,7 +36875,7 @@
         <v>58</v>
       </c>
       <c r="E463" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F463" s="3">
         <v>19</v>
@@ -36935,12 +36935,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>29</v>
@@ -37007,12 +37007,12 @@
       </c>
       <c r="X464" s="2"/>
     </row>
-    <row r="465" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>29</v>
@@ -37081,15 +37081,15 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="466" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D466" s="3" t="s">
         <v>43</v>
@@ -37155,12 +37155,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="467" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>29</v>
@@ -37169,7 +37169,7 @@
         <v>43</v>
       </c>
       <c r="E467" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F467" s="3">
         <v>28</v>
@@ -37227,15 +37227,15 @@
       </c>
       <c r="X467" s="2"/>
     </row>
-    <row r="468" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D468" s="3" t="s">
         <v>53</v>
@@ -37299,12 +37299,12 @@
       </c>
       <c r="X468" s="2"/>
     </row>
-    <row r="469" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>29</v>
@@ -37313,7 +37313,7 @@
         <v>43</v>
       </c>
       <c r="E469" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F469" s="3">
         <v>20</v>
@@ -37371,15 +37371,15 @@
       </c>
       <c r="X469" s="2"/>
     </row>
-    <row r="470" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D470" s="3" t="s">
         <v>41</v>
@@ -37443,21 +37443,21 @@
       </c>
       <c r="X470" s="2"/>
     </row>
-    <row r="471" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E471" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F471" s="3">
         <v>27</v>
@@ -37517,12 +37517,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="472" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>29</v>
@@ -37591,18 +37591,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E473" s="3" t="s">
         <v>54</v>
@@ -37665,12 +37665,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="474" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>29</v>
@@ -37739,15 +37739,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="475" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D475" s="3" t="s">
         <v>56</v>
@@ -37813,15 +37813,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C476" s="3" t="s">
         <v>583</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>584</v>
       </c>
       <c r="D476" s="3" t="s">
         <v>68</v>
@@ -37885,21 +37885,21 @@
       </c>
       <c r="X476" s="2"/>
     </row>
-    <row r="477" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D477" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E477" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F477" s="3">
         <v>23</v>
@@ -37959,21 +37959,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C478" s="3" t="s">
         <v>586</v>
-      </c>
-      <c r="C478" s="3" t="s">
-        <v>587</v>
       </c>
       <c r="D478" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E478" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F478" s="3">
         <v>17</v>
@@ -38031,12 +38031,12 @@
       </c>
       <c r="X478" s="2"/>
     </row>
-    <row r="479" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>29</v>
@@ -38105,18 +38105,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E480" s="3" t="s">
         <v>69</v>
@@ -38179,12 +38179,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="481" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>29</v>
@@ -38251,18 +38251,18 @@
       </c>
       <c r="X481" s="2"/>
     </row>
-    <row r="482" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E482" s="3" t="s">
         <v>47</v>
@@ -38323,15 +38323,15 @@
       </c>
       <c r="X482" s="2"/>
     </row>
-    <row r="483" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D483" s="3" t="s">
         <v>58</v>
@@ -38395,12 +38395,12 @@
       </c>
       <c r="X483" s="2"/>
     </row>
-    <row r="484" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>29</v>
@@ -38409,7 +38409,7 @@
         <v>58</v>
       </c>
       <c r="E484" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F484" s="3">
         <v>27</v>
@@ -38469,12 +38469,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="485" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>29</v>
@@ -38541,12 +38541,12 @@
       </c>
       <c r="X485" s="2"/>
     </row>
-    <row r="486" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>29</v>
@@ -38613,12 +38613,12 @@
       </c>
       <c r="X486" s="2"/>
     </row>
-    <row r="487" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>29</v>
@@ -38685,12 +38685,12 @@
       </c>
       <c r="X487" s="2"/>
     </row>
-    <row r="488" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>29</v>
@@ -38759,12 +38759,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="489" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>29</v>
@@ -38831,12 +38831,12 @@
       </c>
       <c r="X489" s="2"/>
     </row>
-    <row r="490" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>29</v>
@@ -38845,7 +38845,7 @@
         <v>68</v>
       </c>
       <c r="E490" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F490" s="3">
         <v>25</v>
@@ -38905,15 +38905,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D491" s="3" t="s">
         <v>41</v>
@@ -38977,21 +38977,21 @@
       </c>
       <c r="X491" s="2"/>
     </row>
-    <row r="492" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C492" s="3" t="s">
         <v>601</v>
-      </c>
-      <c r="C492" s="3" t="s">
-        <v>602</v>
       </c>
       <c r="D492" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E492" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F492" s="3">
         <v>31</v>
@@ -39051,15 +39051,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="493" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D493" s="3" t="s">
         <v>58</v>
@@ -39123,12 +39123,12 @@
       </c>
       <c r="X493" s="2"/>
     </row>
-    <row r="494" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>29</v>
@@ -39195,15 +39195,15 @@
       </c>
       <c r="X494" s="2"/>
     </row>
-    <row r="495" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D495" s="3" t="s">
         <v>26</v>
@@ -39267,12 +39267,12 @@
       </c>
       <c r="X495" s="2"/>
     </row>
-    <row r="496" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>29</v>
@@ -39341,15 +39341,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="497" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D497" s="3" t="s">
         <v>41</v>
@@ -39415,15 +39415,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="498" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D498" s="3" t="s">
         <v>58</v>
@@ -39489,21 +39489,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D499" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E499" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F499" s="3">
         <v>22</v>
@@ -39561,21 +39561,21 @@
       </c>
       <c r="X499" s="2"/>
     </row>
-    <row r="500" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D500" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E500" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F500" s="3">
         <v>19</v>
@@ -39635,7 +39635,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:24" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/france/18/france_misc.xlsx
+++ b/data/league_data/france/18/france_misc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD13EC16-A4E3-4C42-B20D-0C7701BD1401}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DFF50E-0103-DF46-94BE-3AFD51D2E23C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -880,9 +880,6 @@
     <t>ht HAI</t>
   </si>
   <si>
-    <t>Rafael</t>
-  </si>
-  <si>
     <t>Neymar</t>
   </si>
   <si>
@@ -1853,6 +1850,9 @@
   </si>
   <si>
     <t>Marcelo Filho</t>
+  </si>
+  <si>
+    <t>Rafael da Silva</t>
   </si>
 </sst>
 </file>
@@ -2719,8 +2719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4220,7 +4220,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>70</v>
@@ -17078,7 +17078,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>286</v>
+        <v>610</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>70</v>
@@ -17152,7 +17152,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>70</v>
@@ -17226,7 +17226,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>29</v>
@@ -17300,7 +17300,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>224</v>
@@ -17374,7 +17374,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>95</v>
@@ -17448,7 +17448,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>29</v>
@@ -17522,7 +17522,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>29</v>
@@ -17596,7 +17596,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>70</v>
@@ -17670,7 +17670,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>253</v>
@@ -17744,10 +17744,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>41</v>
@@ -17818,7 +17818,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>74</v>
@@ -17892,7 +17892,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>61</v>
@@ -17966,7 +17966,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>211</v>
@@ -18040,10 +18040,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>41</v>
@@ -18114,7 +18114,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>29</v>
@@ -18188,10 +18188,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C210" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>68</v>
@@ -18262,7 +18262,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>29</v>
@@ -18336,10 +18336,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>41</v>
@@ -18410,7 +18410,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>29</v>
@@ -18484,7 +18484,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>29</v>
@@ -18558,7 +18558,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>74</v>
@@ -18630,7 +18630,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>91</v>
@@ -18704,7 +18704,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>29</v>
@@ -18778,7 +18778,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>91</v>
@@ -18852,7 +18852,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>29</v>
@@ -18924,7 +18924,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>95</v>
@@ -18998,7 +18998,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>29</v>
@@ -19072,7 +19072,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>163</v>
@@ -19146,7 +19146,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>74</v>
@@ -19220,7 +19220,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>29</v>
@@ -19294,7 +19294,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>29</v>
@@ -19368,7 +19368,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>220</v>
@@ -19442,7 +19442,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>163</v>
@@ -19516,7 +19516,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>211</v>
@@ -19590,7 +19590,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>224</v>
@@ -19664,7 +19664,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>29</v>
@@ -19738,7 +19738,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>74</v>
@@ -19812,7 +19812,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>105</v>
@@ -19886,7 +19886,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>29</v>
@@ -19960,7 +19960,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>241</v>
@@ -20034,7 +20034,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>179</v>
@@ -20108,7 +20108,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>29</v>
@@ -20182,7 +20182,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>107</v>
@@ -20256,7 +20256,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>260</v>
@@ -20330,7 +20330,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>241</v>
@@ -20404,7 +20404,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>29</v>
@@ -20478,7 +20478,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>224</v>
@@ -20552,7 +20552,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>105</v>
@@ -20626,7 +20626,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>29</v>
@@ -20700,7 +20700,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>29</v>
@@ -20772,7 +20772,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>29</v>
@@ -20846,7 +20846,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>91</v>
@@ -20920,7 +20920,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>70</v>
@@ -20994,7 +20994,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>29</v>
@@ -21068,10 +21068,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C249" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>41</v>
@@ -21142,7 +21142,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>29</v>
@@ -21216,7 +21216,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>70</v>
@@ -21290,7 +21290,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>29</v>
@@ -21364,7 +21364,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>74</v>
@@ -21438,7 +21438,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>29</v>
@@ -21512,7 +21512,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>201</v>
@@ -21586,10 +21586,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C256" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>41</v>
@@ -21660,10 +21660,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>41</v>
@@ -21734,7 +21734,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>29</v>
@@ -21808,7 +21808,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>29</v>
@@ -21882,10 +21882,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>53</v>
@@ -21956,7 +21956,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>29</v>
@@ -22030,7 +22030,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>29</v>
@@ -22104,7 +22104,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>29</v>
@@ -22178,7 +22178,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>61</v>
@@ -22252,7 +22252,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>74</v>
@@ -22326,7 +22326,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>29</v>
@@ -22400,7 +22400,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>29</v>
@@ -22474,7 +22474,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>29</v>
@@ -22548,7 +22548,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>95</v>
@@ -22622,7 +22622,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>74</v>
@@ -22696,7 +22696,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>29</v>
@@ -22770,7 +22770,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>29</v>
@@ -22844,7 +22844,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>29</v>
@@ -22918,10 +22918,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C274" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>43</v>
@@ -22992,7 +22992,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>70</v>
@@ -23066,7 +23066,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>179</v>
@@ -23140,10 +23140,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C277" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>58</v>
@@ -23214,7 +23214,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>70</v>
@@ -23288,7 +23288,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>29</v>
@@ -23362,7 +23362,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>105</v>
@@ -23436,7 +23436,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>231</v>
@@ -23510,7 +23510,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>107</v>
@@ -23584,7 +23584,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>29</v>
@@ -23658,7 +23658,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>76</v>
@@ -23732,7 +23732,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>29</v>
@@ -23806,10 +23806,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C286" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>41</v>
@@ -23880,7 +23880,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>29</v>
@@ -23954,7 +23954,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>201</v>
@@ -24028,7 +24028,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>243</v>
@@ -24102,7 +24102,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>91</v>
@@ -24176,7 +24176,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>29</v>
@@ -24250,7 +24250,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>29</v>
@@ -24322,7 +24322,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>29</v>
@@ -24396,10 +24396,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>41</v>
@@ -24470,7 +24470,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>211</v>
@@ -24544,7 +24544,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>179</v>
@@ -24618,7 +24618,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>29</v>
@@ -24692,7 +24692,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>29</v>
@@ -24766,7 +24766,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>241</v>
@@ -24840,10 +24840,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>41</v>
@@ -24914,7 +24914,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>95</v>
@@ -24988,7 +24988,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>91</v>
@@ -25062,10 +25062,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C303" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>405</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>43</v>
@@ -25136,10 +25136,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>41</v>
@@ -25210,10 +25210,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>56</v>
@@ -25284,7 +25284,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>83</v>
@@ -25358,7 +25358,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>29</v>
@@ -25432,7 +25432,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>233</v>
@@ -25506,7 +25506,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>243</v>
@@ -25580,7 +25580,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>29</v>
@@ -25654,7 +25654,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>25</v>
@@ -25728,7 +25728,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>74</v>
@@ -25802,7 +25802,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>29</v>
@@ -25876,7 +25876,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>29</v>
@@ -25950,7 +25950,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>201</v>
@@ -26024,7 +26024,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>201</v>
@@ -26098,7 +26098,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>118</v>
@@ -26172,7 +26172,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>224</v>
@@ -26246,7 +26246,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>91</v>
@@ -26320,7 +26320,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>29</v>
@@ -26394,7 +26394,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>74</v>
@@ -26468,7 +26468,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>29</v>
@@ -26542,7 +26542,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>29</v>
@@ -26616,7 +26616,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>105</v>
@@ -26690,7 +26690,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>74</v>
@@ -26764,7 +26764,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>29</v>
@@ -26838,7 +26838,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>201</v>
@@ -26912,7 +26912,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>29</v>
@@ -26986,7 +26986,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>46</v>
@@ -27060,10 +27060,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C330" s="3" t="s">
         <v>433</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>434</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>41</v>
@@ -27134,7 +27134,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>111</v>
@@ -27208,7 +27208,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>29</v>
@@ -27280,10 +27280,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>68</v>
@@ -27354,7 +27354,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>285</v>
@@ -27428,7 +27428,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>243</v>
@@ -27502,10 +27502,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C336" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>441</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>56</v>
@@ -27576,7 +27576,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>29</v>
@@ -27650,7 +27650,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>91</v>
@@ -27724,7 +27724,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>87</v>
@@ -27798,7 +27798,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>29</v>
@@ -27872,7 +27872,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>95</v>
@@ -27946,7 +27946,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>29</v>
@@ -28020,7 +28020,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>220</v>
@@ -28094,7 +28094,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>105</v>
@@ -28168,7 +28168,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>74</v>
@@ -28242,10 +28242,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>102</v>
@@ -28316,7 +28316,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>107</v>
@@ -28390,7 +28390,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>29</v>
@@ -28462,7 +28462,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>29</v>
@@ -28536,7 +28536,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>29</v>
@@ -28610,7 +28610,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>157</v>
@@ -28684,10 +28684,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C352" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>458</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>58</v>
@@ -28758,7 +28758,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>25</v>
@@ -28832,7 +28832,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>74</v>
@@ -28906,7 +28906,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>105</v>
@@ -28980,10 +28980,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>41</v>
@@ -29054,10 +29054,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>464</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>56</v>
@@ -29128,7 +29128,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>29</v>
@@ -29202,7 +29202,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>29</v>
@@ -29276,7 +29276,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>29</v>
@@ -29348,7 +29348,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>220</v>
@@ -29422,7 +29422,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>29</v>
@@ -29496,7 +29496,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>29</v>
@@ -29570,7 +29570,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>29</v>
@@ -29644,10 +29644,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>41</v>
@@ -29718,7 +29718,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>105</v>
@@ -29792,7 +29792,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>105</v>
@@ -29866,7 +29866,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>260</v>
@@ -29940,7 +29940,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>29</v>
@@ -30014,7 +30014,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>29</v>
@@ -30088,7 +30088,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>61</v>
@@ -30162,7 +30162,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>171</v>
@@ -30236,10 +30236,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D373" s="3" t="s">
         <v>102</v>
@@ -30310,7 +30310,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>241</v>
@@ -30384,7 +30384,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>29</v>
@@ -30458,7 +30458,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>70</v>
@@ -30532,7 +30532,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>29</v>
@@ -30606,7 +30606,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>74</v>
@@ -30680,7 +30680,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>29</v>
@@ -30754,10 +30754,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C380" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>487</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>53</v>
@@ -30828,7 +30828,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>29</v>
@@ -30902,7 +30902,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>91</v>
@@ -30976,7 +30976,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>29</v>
@@ -31050,7 +31050,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>29</v>
@@ -31122,7 +31122,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>29</v>
@@ -31196,7 +31196,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>29</v>
@@ -31270,7 +31270,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>76</v>
@@ -31344,7 +31344,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>29</v>
@@ -31418,7 +31418,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>70</v>
@@ -31492,7 +31492,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>29</v>
@@ -31566,7 +31566,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>29</v>
@@ -31640,7 +31640,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>91</v>
@@ -31714,7 +31714,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>29</v>
@@ -31788,7 +31788,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>87</v>
@@ -31862,7 +31862,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>29</v>
@@ -31936,7 +31936,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>74</v>
@@ -32010,7 +32010,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>74</v>
@@ -32084,10 +32084,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C398" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="C398" s="3" t="s">
-        <v>505</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>41</v>
@@ -32158,7 +32158,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>241</v>
@@ -32232,7 +32232,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>29</v>
@@ -32306,7 +32306,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>29</v>
@@ -32380,7 +32380,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>29</v>
@@ -32454,7 +32454,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>50</v>
@@ -32528,7 +32528,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>29</v>
@@ -32602,7 +32602,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>201</v>
@@ -32676,7 +32676,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>76</v>
@@ -32750,7 +32750,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>95</v>
@@ -32824,7 +32824,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>29</v>
@@ -32898,7 +32898,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>76</v>
@@ -32972,10 +32972,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C410" s="3" t="s">
         <v>517</v>
-      </c>
-      <c r="C410" s="3" t="s">
-        <v>518</v>
       </c>
       <c r="D410" s="3" t="s">
         <v>56</v>
@@ -33046,7 +33046,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>29</v>
@@ -33120,7 +33120,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>163</v>
@@ -33192,7 +33192,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>76</v>
@@ -33266,10 +33266,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D414" s="3" t="s">
         <v>68</v>
@@ -33340,10 +33340,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>41</v>
@@ -33414,7 +33414,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>29</v>
@@ -33486,7 +33486,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>179</v>
@@ -33558,7 +33558,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>249</v>
@@ -33632,10 +33632,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>26</v>
@@ -33704,7 +33704,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>29</v>
@@ -33776,7 +33776,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>29</v>
@@ -33850,7 +33850,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>29</v>
@@ -33924,7 +33924,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>87</v>
@@ -33998,7 +33998,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>107</v>
@@ -34072,10 +34072,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>41</v>
@@ -34146,7 +34146,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>29</v>
@@ -34220,7 +34220,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>224</v>
@@ -34294,7 +34294,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>29</v>
@@ -34368,7 +34368,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>25</v>
@@ -34442,10 +34442,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>26</v>
@@ -34514,7 +34514,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>29</v>
@@ -34588,7 +34588,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>29</v>
@@ -34660,7 +34660,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>29</v>
@@ -34808,7 +34808,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>29</v>
@@ -34882,7 +34882,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>29</v>
@@ -34956,7 +34956,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>29</v>
@@ -35030,7 +35030,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>29</v>
@@ -35102,7 +35102,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>74</v>
@@ -35174,7 +35174,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>29</v>
@@ -35246,7 +35246,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>29</v>
@@ -35320,7 +35320,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>29</v>
@@ -35394,7 +35394,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>163</v>
@@ -35468,7 +35468,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>74</v>
@@ -35540,7 +35540,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>74</v>
@@ -35612,7 +35612,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>29</v>
@@ -35686,10 +35686,10 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C447" s="3" t="s">
         <v>552</v>
-      </c>
-      <c r="C447" s="3" t="s">
-        <v>553</v>
       </c>
       <c r="D447" s="3" t="s">
         <v>41</v>
@@ -35834,10 +35834,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D449" s="3" t="s">
         <v>26</v>
@@ -35906,7 +35906,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>29</v>
@@ -35980,7 +35980,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>61</v>
@@ -36054,10 +36054,10 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C452" s="3" t="s">
         <v>557</v>
-      </c>
-      <c r="C452" s="3" t="s">
-        <v>558</v>
       </c>
       <c r="D452" s="3" t="s">
         <v>58</v>
@@ -36128,7 +36128,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>29</v>
@@ -36202,10 +36202,10 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D454" s="3" t="s">
         <v>43</v>
@@ -36276,7 +36276,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>220</v>
@@ -36348,7 +36348,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>107</v>
@@ -36422,7 +36422,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>91</v>
@@ -36496,7 +36496,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>29</v>
@@ -36570,10 +36570,10 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D459" s="3" t="s">
         <v>43</v>
@@ -36644,7 +36644,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>107</v>
@@ -36718,7 +36718,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>29</v>
@@ -36792,7 +36792,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>201</v>
@@ -36866,7 +36866,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>29</v>
@@ -36940,7 +36940,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>29</v>
@@ -37012,7 +37012,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>29</v>
@@ -37086,10 +37086,10 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D466" s="3" t="s">
         <v>43</v>
@@ -37160,7 +37160,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>29</v>
@@ -37232,7 +37232,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>220</v>
@@ -37304,7 +37304,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>29</v>
@@ -37376,7 +37376,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>253</v>
@@ -37448,7 +37448,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>74</v>
@@ -37522,7 +37522,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>29</v>
@@ -37596,7 +37596,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>29</v>
@@ -37670,7 +37670,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>29</v>
@@ -37744,7 +37744,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>95</v>
@@ -37818,10 +37818,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C476" s="3" t="s">
         <v>582</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>583</v>
       </c>
       <c r="D476" s="3" t="s">
         <v>68</v>
@@ -37890,7 +37890,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>105</v>
@@ -37964,10 +37964,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C478" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="C478" s="3" t="s">
-        <v>586</v>
       </c>
       <c r="D478" s="3" t="s">
         <v>56</v>
@@ -38036,7 +38036,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>29</v>
@@ -38110,13 +38110,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E480" s="3" t="s">
         <v>69</v>
@@ -38184,7 +38184,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>29</v>
@@ -38256,10 +38256,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D482" s="3" t="s">
         <v>147</v>
@@ -38328,7 +38328,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>253</v>
@@ -38400,7 +38400,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>29</v>
@@ -38474,7 +38474,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>29</v>
@@ -38546,7 +38546,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>29</v>
@@ -38618,7 +38618,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>29</v>
@@ -38690,7 +38690,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>29</v>
@@ -38764,7 +38764,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>29</v>
@@ -38836,7 +38836,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>29</v>
@@ -38910,7 +38910,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>224</v>
@@ -38982,10 +38982,10 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C492" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="C492" s="3" t="s">
-        <v>601</v>
       </c>
       <c r="D492" s="3" t="s">
         <v>41</v>
@@ -39056,7 +39056,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>241</v>
@@ -39128,7 +39128,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>29</v>
@@ -39200,7 +39200,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>201</v>
@@ -39272,7 +39272,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>29</v>
@@ -39346,7 +39346,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>76</v>
@@ -39420,7 +39420,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>70</v>
@@ -39494,7 +39494,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>70</v>
@@ -39566,7 +39566,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>70</v>
